--- a/xlsx/空手道_intext.xlsx
+++ b/xlsx/空手道_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%89%8B%E9%81%93_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>空手道 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_空手道</t>
+    <t>空手道 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_空手道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%9C%8B</t>
   </si>
   <si>
-    <t>琉球國</t>
+    <t>琉球国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%86%E6%8B%B3%E9%81%93</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD%E7%BD%97%E9%A9%AC%E5%AD%97</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%96%87</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E6%9B%B8%E5%AF%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>日語書寫系統</t>
+    <t>日语书写系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E6%89%8B</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>琉球群島</t>
+    <t>琉球群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A1%93</t>
   </si>
   <si>
-    <t>武術</t>
+    <t>武术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>比賽</t>
+    <t>比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%8B</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%A9%BA%E6%89%8B%E9%81%93%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>世界空手道總會</t>
+    <t>世界空手道总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E5%BA%A6</t>
@@ -149,67 +149,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%9E%97%E6%AD%A6%E8%A1%93</t>
   </si>
   <si>
-    <t>少林武術</t>
+    <t>少林武术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E6%96%87%E5%8C%96%E5%9C%88</t>
   </si>
   <si>
-    <t>漢字文化圈</t>
+    <t>汉字文化圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E8%AA%9E</t>
   </si>
   <si>
-    <t>琉球語</t>
+    <t>琉球语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E8%AE%80</t>
   </si>
   <si>
-    <t>訓讀</t>
+    <t>训读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E8%B6%8A%E7%BE%A9%E7%8F%8D</t>
   </si>
   <si>
-    <t>船越義珍</t>
+    <t>船越义珍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>中國人</t>
+    <t>中国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%AF%80%E6%A3%8D</t>
   </si>
   <si>
-    <t>雙節棍</t>
+    <t>双节棍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%B5</t>
   </si>
   <si>
-    <t>釵</t>
+    <t>钗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%8D</t>
@@ -233,31 +233,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E7%B8%A3</t>
   </si>
   <si>
-    <t>沖繩縣</t>
+    <t>冲绳县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9</t>
   </si>
   <si>
-    <t>沖繩</t>
+    <t>冲绳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%9F%8E%E9%95%B7%E8%8C%82</t>
   </si>
   <si>
-    <t>花城長茂</t>
+    <t>花城长茂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AC%E8%8B%A5%E5%BF%83%E7%B6%93</t>
   </si>
   <si>
-    <t>般若心經</t>
+    <t>般若心经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E5%92%8C</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%96%B0%E5%A0%B1</t>
   </si>
   <si>
-    <t>琉球新報</t>
+    <t>琉球新报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E9%9C%B8</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%A6%E8%A1%93</t>
   </si>
   <si>
-    <t>中國武術</t>
+    <t>中国武术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E9%81%93</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%B0</t>
   </si>
   <si>
-    <t>二戰</t>
+    <t>二战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%BA%A6</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%B2%A2</t>
   </si>
   <si>
-    <t>朝貢</t>
+    <t>朝贡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%AD%A6%E5%B8%9D</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E4%BA%BA%E4%B8%89%E5%8D%81%E5%85%AD%E5%A7%93</t>
   </si>
   <si>
-    <t>閩人三十六姓</t>
+    <t>闽人三十六姓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E9%9C%B8%E6%B8%AF</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E8%97%A9</t>
   </si>
   <si>
-    <t>薩摩藩</t>
+    <t>萨摩藩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%BA%B8%E5%9C%8B</t>
   </si>
   <si>
-    <t>附庸國</t>
+    <t>附庸国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E9%95%B7</t>
   </si>
   <si>
-    <t>慶長</t>
+    <t>庆长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%87%8C%E5%AE%89%E6%81%92</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E8%A1%93</t>
   </si>
   <si>
-    <t>柔術</t>
+    <t>柔术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E4%B9%85%E5%B7%9D%E5%AF%AC%E8%B3%80</t>
   </si>
   <si>
-    <t>佐久川寬賀</t>
+    <t>佐久川宽贺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9%E5%85%A5%E4%BE%B5%E7%90%89%E7%90%83</t>
   </si>
   <si>
-    <t>薩摩入侵琉球</t>
+    <t>萨摩入侵琉球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%95%AA%E5%A5%89%E8%A1%8C%E6%89%80</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%97%A5%E6%83%85%E7%B7%92</t>
   </si>
   <si>
-    <t>反日情緒</t>
+    <t>反日情绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%99%BD</t>
   </si>
   <si>
-    <t>球陽</t>
+    <t>球阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9E%E5%BB%BA%E6%A5%B5</t>
   </si>
   <si>
-    <t>虞建極</t>
+    <t>虞建极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E4%B8%96%E6%98%8C</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>儒學</t>
+    <t>儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%86%8C%E5%B0%81%E4%BD%BF%E5%88%97%E8%A1%A8</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%88%90%E9%81%94</t>
   </si>
   <si>
-    <t>武成達</t>
+    <t>武成达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A%E6%9D%91_(%E7%90%89%E7%90%83)</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%91%A9</t>
   </si>
   <si>
-    <t>薩摩</t>
+    <t>萨摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BA%E7%8F%BE%E6%B5%81</t>
   </si>
   <si>
-    <t>示現流</t>
+    <t>示现流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%87%8C%E6%89%8B</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E8%99%95%E5%88%86</t>
   </si>
   <si>
-    <t>琉球處分</t>
+    <t>琉球处分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%B8%E6%B4%B2%E5%AE%89%E6%81%92</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E6%B8%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>脫清人</t>
+    <t>脱清人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%8E%E5%96%84%E7%86%99</t>
@@ -581,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%B4%8D%E6%B2%BB%E4%BA%94%E9%83%8E</t>
   </si>
   <si>
-    <t>嘉納治五郎</t>
+    <t>嘉纳治五郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%A8%E6%9C%9D%E5%9F%BA</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA</t>
   </si>
   <si>
-    <t>大阪</t>
+    <t>大坂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%A8%E6%9C%9D%E5%8B%87</t>
@@ -641,31 +641,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%87%E4%BB%81%E8%B3%A2%E5%92%8C</t>
   </si>
   <si>
-    <t>摩文仁賢和</t>
+    <t>摩文仁贤和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%9F%8E%E9%95%B7%E9%A0%86</t>
   </si>
   <si>
-    <t>宮城長順</t>
+    <t>宫城长顺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%94%B0%E9%87%8D%E7%99%BC</t>
   </si>
   <si>
-    <t>許田重發</t>
+    <t>许田重发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%B3%A2%E8%B2%B4</t>
   </si>
   <si>
-    <t>吳賢貴</t>
+    <t>吴贤贵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A1%9A%E5%8D%9A%E7%B4%80</t>
   </si>
   <si>
-    <t>大塚博紀</t>
+    <t>大冢博纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E9%81%93%E6%B5%81</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%BF%A4%E9%A4%A8%E6%B5%81</t>
   </si>
   <si>
-    <t>松濤館流</t>
+    <t>松涛馆流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%A8%E6%B5%81</t>
@@ -689,31 +689,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%B8%E6%9D%B1%E6%B5%81</t>
   </si>
   <si>
-    <t>糸東流</t>
+    <t>糸东流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E6%AD%A6%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>大日本武德會</t>
+    <t>大日本武德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E6%87%89%E7%BE%A9%E5%A1%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>慶應義塾大學</t>
+    <t>庆应义塾大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次世界大戰</t>
+    <t>二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%8A%95%E9%99%8D</t>
@@ -725,103 +725,103 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B2%BB%E7%90%86%E7%90%89%E7%90%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>美國治理琉球時期</t>
+    <t>美国治理琉球时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%88%97%E5%B3%B6</t>
   </si>
   <si>
-    <t>日本列島</t>
+    <t>日本列岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%BB%8D%E6%9C%80%E9%AB%98%E5%8F%B8%E4%BB%A4%E5%AE%98%E7%B8%BD%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>聯合國軍最高司令官總司令部</t>
+    <t>联合国军最高司令官总司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E9%81%93</t>
   </si>
   <si>
-    <t>劍道</t>
+    <t>剑道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太平洋戰爭</t>
+    <t>太平洋战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A9%BA%E6%89%8B%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>日本空手協會</t>
+    <t>日本空手协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%AD%A6%E9%81%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>日本武道館</t>
+    <t>日本武道馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%9C%9F%E7%A9%BA%E6%89%8B</t>
   </si>
   <si>
-    <t>極真空手</t>
+    <t>极真空手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B1%B1%E5%80%8D%E9%81%94</t>
   </si>
   <si>
-    <t>大山倍達</t>
+    <t>大山倍达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>東京體育館</t>
+    <t>东京体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%8E%A5%E8%A7%B8%E5%BC%8F%E7%A9%BA%E6%89%8B</t>
   </si>
   <si>
-    <t>全接觸式空手</t>
+    <t>全接触式空手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%9C%9F%E6%9C%83%E9%A4%A8</t>
   </si>
   <si>
-    <t>極真會館</t>
+    <t>极真会馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8B%99%E7%9C%81</t>
   </si>
   <si>
-    <t>外務省</t>
+    <t>外务省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>廣島</t>
+    <t>广岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E4%BA%8C%E5%B1%86%E4%BA%9E%E6%B4%B2%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>第十二屆亞洲運動會</t>
+    <t>第十二届亚洲运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%81%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>亞運會</t>
+    <t>亚运会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國際奧林匹克委員會</t>
+    <t>国际奥林匹克委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%90%E4%BC%9A%E9%A1%B9%E7%9B%AE</t>
@@ -833,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2012年夏季奧林匹克運動會</t>
+    <t>2012年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A5%A7%E5%A7%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際奧委會</t>
+    <t>国际奥委会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2016年夏季奧林匹克運動會</t>
+    <t>2016年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2020%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -863,19 +863,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E6%BF%A4%E9%A4%A8%E7%A9%BA%E6%89%8B</t>
   </si>
   <si>
-    <t>松濤館空手</t>
+    <t>松涛馆空手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9F%94%E6%B5%81</t>
   </si>
   <si>
-    <t>剛柔流</t>
+    <t>刚柔流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東京大學</t>
+    <t>东京大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%87%8C%E5%B8%82</t>
@@ -887,31 +887,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%B1%85%E6%95%B8</t>
   </si>
   <si>
-    <t>夏居數</t>
+    <t>夏居数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E5%88%87</t>
   </si>
   <si>
-    <t>間切</t>
+    <t>间切</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E8%A1%93</t>
   </si>
   <si>
-    <t>棒術</t>
+    <t>棒术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%B0%A3%E6%9C%83</t>
   </si>
   <si>
-    <t>正氣會</t>
+    <t>正气会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E9%81%93%E6%9C%83</t>
   </si>
   <si>
-    <t>修道會</t>
+    <t>修道会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%9E%97%E6%B5%81</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%8E%A5%E8%A7%B8%E7%A9%BA%E6%89%8B%E9%81%93</t>
   </si>
   <si>
-    <t>全接觸空手道</t>
+    <t>全接触空手道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%9E%97%E5%AF%BA</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B3%E6%93%8A</t>
   </si>
   <si>
-    <t>拳擊</t>
+    <t>拳击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%8B%B3</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B1%8D%E8%8F%AF%E8%A3%94</t>
   </si>
   <si>
-    <t>美籍華裔</t>
+    <t>美籍华裔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_Kwai_Sun_Chow</t>
@@ -1037,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%8D%97%E5%A4%9A%C2%B7%E7%A7%91%E6%B4%9B%E7%88%BE%C2%B7%E5%BE%B7%E6%A2%85%E6%B4%9B</t>
   </si>
   <si>
-    <t>費爾南多·科洛爾·德梅洛</t>
+    <t>费尔南多·科洛尔·德梅洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E9%8E%94%E5%9F%BA</t>
   </si>
   <si>
-    <t>朱鎔基</t>
+    <t>朱镕基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AE%89</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%8D%97</t>
   </si>
   <si>
-    <t>雲南</t>
+    <t>云南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>青島</t>
+    <t>青岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E5%A4%A7%E5%AD%A6</t>
@@ -1097,19 +1097,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%BA%E4%BA%95%E5%93%B2%E5%BD%A5</t>
   </si>
   <si>
-    <t>淺井哲彥</t>
+    <t>浅井哲彦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%9F%93%E4%BD%B5%E5%90%88</t>
   </si>
   <si>
-    <t>日韓併合</t>
+    <t>日韩并合</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>朝鮮半島</t>
+    <t>朝鲜半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%94%E6%B3%93%E7%86%99</t>
@@ -1127,13 +1127,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索羅門群島</t>
+    <t>索罗门群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%B0%BC%E5%85%8B%E6%96%AF</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%BE%A4%E5%BC%98%E5%92%8C</t>
   </si>
   <si>
-    <t>金澤弘和</t>
+    <t>金泽弘和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -1169,19 +1169,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E9%9B%AA%E5%A4%AB</t>
   </si>
   <si>
-    <t>赫魯雪夫</t>
+    <t>赫鲁雪夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>莫斯科大學</t>
+    <t>莫斯科大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E6%90%8F</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>蘇聯解體</t>
+    <t>苏联解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%AD%A6%E9%81%93</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E7%B9%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>沖繩語</t>
+    <t>冲绳语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IOC</t>
@@ -1223,13 +1223,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%90%8D%E8%85%B0%E7%BE%A9%E7%8F%8D</t>
   </si>
   <si>
-    <t>富名腰義珍</t>
+    <t>富名腰义珍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1241,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/空手道_intext.xlsx
+++ b/xlsx/空手道_intext.xlsx
@@ -29,7 +29,7 @@
     <t>空手道 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_空手道</t>
+    <t>体育运动_体育运动_体育_空手道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E5%9C%8B</t>
@@ -5356,7 +5356,7 @@
         <v>250</v>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
